--- a/generated_excel/sample01.xlsx
+++ b/generated_excel/sample01.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Topics" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Topics" sheetId="2" state="veryHidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/generated_excel/sample01.xlsx
+++ b/generated_excel/sample01.xlsx
@@ -421,6 +421,27 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="150" customWidth="1" min="1" max="1"/>
+    <col width="150" customWidth="1" min="2" max="2"/>
+    <col width="150" customWidth="1" min="3" max="3"/>
+    <col width="150" customWidth="1" min="4" max="4"/>
+    <col width="150" customWidth="1" min="5" max="5"/>
+    <col width="150" customWidth="1" min="6" max="6"/>
+    <col width="150" customWidth="1" min="7" max="7"/>
+    <col width="150" customWidth="1" min="8" max="8"/>
+    <col width="150" customWidth="1" min="9" max="9"/>
+    <col width="150" customWidth="1" min="10" max="10"/>
+    <col width="150" customWidth="1" min="11" max="11"/>
+    <col width="150" customWidth="1" min="12" max="12"/>
+    <col width="150" customWidth="1" min="13" max="13"/>
+    <col width="150" customWidth="1" min="14" max="14"/>
+    <col width="150" customWidth="1" min="15" max="15"/>
+    <col width="150" customWidth="1" min="16" max="16"/>
+    <col width="150" customWidth="1" min="17" max="17"/>
+    <col width="150" customWidth="1" min="18" max="18"/>
+    <col width="150" customWidth="1" min="19" max="19"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -515,7 +536,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5003">
+  <dataValidations count="5004">
     <dataValidation sqref="A2:A5000" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>'Topics'!$A$1:$A$5</formula1>
     </dataValidation>
@@ -15521,6 +15542,9 @@
     </dataValidation>
     <dataValidation sqref="E2:E5000" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="whole">
       <formula1>1:8</formula1>
+    </dataValidation>
+    <dataValidation sqref="N2:N5000" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"Option 1,Option 2,Option 3,Option 4,Option 5,Option 6,Option 7,Option 8"</formula1>
     </dataValidation>
     <dataValidation sqref="P2:P5000" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"Easy, Medium, Hard"</formula1>
